--- a/Task1/task1.xlsx
+++ b/Task1/task1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c0766519e7cf51/Документы/теория параллелизма/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c0766519e7cf51/Документы/теория параллелизма/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F9267E45-AE0C-435A-8228-F334222087AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD081F1F-CBBC-4127-8BFA-AADFC442BB74}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{F9267E45-AE0C-435A-8228-F334222087AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05ACEE0B-8FC5-4549-B39E-9A62270AC4BE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CBB83E13-2D98-429E-8B9A-93120CE475E4}"/>
   </bookViews>
@@ -58,25 +58,28 @@
     <t>Test3</t>
   </si>
   <si>
-    <t>-3.126388e-12a</t>
-  </si>
-  <si>
-    <t>-2.853394e-02</t>
-  </si>
-  <si>
-    <t>-6.749630e-04</t>
-  </si>
-  <si>
     <t>-3.126388e-12</t>
   </si>
   <si>
     <t xml:space="preserve">Время компиляции </t>
+  </si>
+  <si>
+    <t>5.212545e-03</t>
+  </si>
+  <si>
+    <t>1.218414e-02</t>
+  </si>
+  <si>
+    <t>2.236195e-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +152,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +474,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,19 +503,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>6.1539999999999999</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6.173</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3.1160000000000001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>30.652999999999999</v>
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="C2" s="6">
+        <v>330</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>30.634</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -517,16 +523,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>6.149</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6.1680000000000001</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3.1120000000000001</v>
-      </c>
-      <c r="E3" s="5">
-        <v>30.649000000000001</v>
+        <v>6.1669999999999998</v>
+      </c>
+      <c r="C3" s="6">
+        <v>326</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>30.63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -554,13 +560,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -571,13 +577,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">

--- a/Task1/task1.xlsx
+++ b/Task1/task1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c0766519e7cf51/Документы/теория параллелизма/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{F9267E45-AE0C-435A-8228-F334222087AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05ACEE0B-8FC5-4549-B39E-9A62270AC4BE}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F9267E45-AE0C-435A-8228-F334222087AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B323C1-8CB6-45B3-B85F-F5383137B4FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CBB83E13-2D98-429E-8B9A-93120CE475E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{CBB83E13-2D98-429E-8B9A-93120CE475E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +103,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -172,6 +180,4861 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость времени исполнения программы от количества </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chunk-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>ов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16345822397200349"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4803149606299214E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863E-4D8A-A45C-43922BE469CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-863E-4D8A-A45C-43922BE469CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Степень</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-863E-4D8A-A45C-43922BE469CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2036044608"/>
+        <c:axId val="2036043360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2036044608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036043360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2036043360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036044608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость порядка точности вычисления от порядка </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chunk</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>-а и типа данных</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Степень</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Степень точности</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B84-43B0-AF47-B1A786CF78D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Степень</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Степень точности</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B84-43B0-AF47-B1A786CF78D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Степень</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Степень точности</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30.634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.63</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B84-43B0-AF47-B1A786CF78D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2087492640"/>
+        <c:axId val="2087495968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2087492640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087495968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2087495968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2087492640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Зависимость порядка точности вычисления от порядка </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Chunk</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>-а и типа данных</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1681-46D4-9746-52A3C165859F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1681-46D4-9746-52A3C165859F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Степень</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1681-46D4-9746-52A3C165859F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Степень точности</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1681-46D4-9746-52A3C165859F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="60856896"/>
+        <c:axId val="60857728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60856896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60857728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60857728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60856896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Зависимость времени исполнения программы от количества </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Chunk-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ов</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время компиляции </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1710000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F535-472F-89D1-E86ACC7E6610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время копирования</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>6.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F535-472F-89D1-E86ACC7E6610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Степень</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Test2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Test3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Test1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F535-472F-89D1-E86ACC7E6610}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1648436176"/>
+        <c:axId val="1681890208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1648436176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1681890208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1681890208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648436176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780FE78C-E0B1-40D3-8AB8-29AE10660BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E61FFDA-838D-4970-9B46-DE07814CED80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9871F55-4ACB-4771-B40B-759AC9E79AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040B00DA-0668-42BF-86E8-5364D1915961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,17 +5336,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8B9A78-4AD9-4190-87D6-D6155173B7C0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -492,13 +5355,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -509,13 +5372,13 @@
         <v>6.1710000000000003</v>
       </c>
       <c r="C2" s="6">
-        <v>330</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>3.1139999999999999</v>
+        <v>30.634</v>
       </c>
       <c r="E2" s="6">
-        <v>30.634</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -526,13 +5389,13 @@
         <v>6.1669999999999998</v>
       </c>
       <c r="C3" s="6">
-        <v>326</v>
+        <v>3.11</v>
       </c>
       <c r="D3" s="6">
-        <v>3.11</v>
+        <v>30.63</v>
       </c>
       <c r="E3" s="6">
-        <v>30.63</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -543,13 +5406,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -560,13 +5423,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,13 +5440,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -593,7 +5456,23 @@
       <c r="E7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA5AF32-DE7E-498B-B473-D5A493C7F5FE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>